--- a/data/processed/state_overviews/washington_overview.xlsx
+++ b/data/processed/state_overviews/washington_overview.xlsx
@@ -389,8 +389,10 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2">
-        <v>2741</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2,741</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -420,7 +422,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -464,8 +466,10 @@
           <t>Adams County</t>
         </is>
       </c>
-      <c r="B2">
-        <v>2</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -494,8 +498,10 @@
           <t>Asotin County</t>
         </is>
       </c>
-      <c r="B3">
-        <v>6</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -524,8 +530,10 @@
           <t>Benton County</t>
         </is>
       </c>
-      <c r="B4">
-        <v>50</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -554,8 +562,10 @@
           <t>Chelan County</t>
         </is>
       </c>
-      <c r="B5">
-        <v>69</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -584,8 +594,10 @@
           <t>Clallam County</t>
         </is>
       </c>
-      <c r="B6">
-        <v>44</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -614,8 +626,10 @@
           <t>Clark County</t>
         </is>
       </c>
-      <c r="B7">
-        <v>85</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -644,8 +658,10 @@
           <t>Columbia County</t>
         </is>
       </c>
-      <c r="B8">
-        <v>4</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -674,8 +690,10 @@
           <t>Cowlitz County</t>
         </is>
       </c>
-      <c r="B9">
-        <v>23</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -704,8 +722,10 @@
           <t>Douglas County</t>
         </is>
       </c>
-      <c r="B10">
-        <v>5</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -734,8 +754,10 @@
           <t>Ferry County</t>
         </is>
       </c>
-      <c r="B11">
-        <v>1</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -764,8 +786,10 @@
           <t>Franklin County</t>
         </is>
       </c>
-      <c r="B12">
-        <v>14</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -794,8 +818,10 @@
           <t>Grant County</t>
         </is>
       </c>
-      <c r="B13">
-        <v>13</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -824,8 +850,10 @@
           <t>Grays Harbor County</t>
         </is>
       </c>
-      <c r="B14">
-        <v>25</v>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -854,8 +882,10 @@
           <t>Island County</t>
         </is>
       </c>
-      <c r="B15">
-        <v>34</v>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -884,8 +914,10 @@
           <t>Jefferson County</t>
         </is>
       </c>
-      <c r="B16">
-        <v>38</v>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -914,8 +946,10 @@
           <t>King County</t>
         </is>
       </c>
-      <c r="B17">
-        <v>1129</v>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>1,129</t>
+        </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -944,8 +978,10 @@
           <t>Kitsap County</t>
         </is>
       </c>
-      <c r="B18">
-        <v>91</v>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -974,8 +1010,10 @@
           <t>Kittitas County</t>
         </is>
       </c>
-      <c r="B19">
-        <v>21</v>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -1004,8 +1042,10 @@
           <t>Klickitat County</t>
         </is>
       </c>
-      <c r="B20">
-        <v>9</v>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -1034,8 +1074,10 @@
           <t>Lewis County</t>
         </is>
       </c>
-      <c r="B21">
-        <v>23</v>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -1064,8 +1106,10 @@
           <t>Lincoln County</t>
         </is>
       </c>
-      <c r="B22">
-        <v>2</v>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -1094,8 +1138,10 @@
           <t>Mason County</t>
         </is>
       </c>
-      <c r="B23">
-        <v>15</v>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1124,8 +1170,10 @@
           <t>Okanogan County</t>
         </is>
       </c>
-      <c r="B24">
-        <v>29</v>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -1154,8 +1202,10 @@
           <t>Pacific County</t>
         </is>
       </c>
-      <c r="B25">
-        <v>13</v>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -1184,8 +1234,10 @@
           <t>Pend Oreille County</t>
         </is>
       </c>
-      <c r="B26">
-        <v>5</v>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -1214,8 +1266,10 @@
           <t>Pierce County</t>
         </is>
       </c>
-      <c r="B27">
-        <v>209</v>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>209</t>
+        </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -1244,8 +1298,10 @@
           <t>San Juan County</t>
         </is>
       </c>
-      <c r="B28">
-        <v>36</v>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -1274,8 +1330,10 @@
           <t>Skagit County</t>
         </is>
       </c>
-      <c r="B29">
-        <v>51</v>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -1304,8 +1362,10 @@
           <t>Skamania County</t>
         </is>
       </c>
-      <c r="B30">
-        <v>4</v>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -1334,8 +1394,10 @@
           <t>Snohomish County</t>
         </is>
       </c>
-      <c r="B31">
-        <v>168</v>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>168</t>
+        </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -1364,8 +1426,10 @@
           <t>Spokane County</t>
         </is>
       </c>
-      <c r="B32">
-        <v>185</v>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>185</t>
+        </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -1394,8 +1458,10 @@
           <t>Stevens County</t>
         </is>
       </c>
-      <c r="B33">
-        <v>13</v>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -1424,8 +1490,10 @@
           <t>Thurston County</t>
         </is>
       </c>
-      <c r="B34">
-        <v>102</v>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -1454,8 +1522,10 @@
           <t>Wahkiakum County</t>
         </is>
       </c>
-      <c r="B35">
-        <v>1</v>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -1484,8 +1554,10 @@
           <t>Walla Walla County</t>
         </is>
       </c>
-      <c r="B36">
-        <v>33</v>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -1514,8 +1586,10 @@
           <t>Whatcom County</t>
         </is>
       </c>
-      <c r="B37">
-        <v>104</v>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1544,8 +1618,10 @@
           <t>Whitman County</t>
         </is>
       </c>
-      <c r="B38">
-        <v>13</v>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1574,8 +1650,10 @@
           <t>Yakima County</t>
         </is>
       </c>
-      <c r="B39">
-        <v>72</v>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1595,6 +1673,38 @@
       <c r="F39" t="inlineStr">
         <is>
           <t>62.50%</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>2,741</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>$6,452,428,730</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>10.77%</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>-10.62%</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>66.00%</t>
         </is>
       </c>
     </row>
@@ -1649,8 +1759,10 @@
           <t>Congressional District 1</t>
         </is>
       </c>
-      <c r="B2">
-        <v>149</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -1679,8 +1791,10 @@
           <t>Congressional District 10</t>
         </is>
       </c>
-      <c r="B3">
-        <v>160</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -1709,8 +1823,10 @@
           <t>Congressional District 2</t>
         </is>
       </c>
-      <c r="B4">
-        <v>336</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>336</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -1739,8 +1855,10 @@
           <t>Congressional District 3</t>
         </is>
       </c>
-      <c r="B5">
-        <v>152</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1769,8 +1887,10 @@
           <t>Congressional District 4</t>
         </is>
       </c>
-      <c r="B6">
-        <v>193</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>193</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1799,8 +1919,10 @@
           <t>Congressional District 5</t>
         </is>
       </c>
-      <c r="B7">
-        <v>263</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>263</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1829,8 +1951,10 @@
           <t>Congressional District 6</t>
         </is>
       </c>
-      <c r="B8">
-        <v>356</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>356</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1859,8 +1983,10 @@
           <t>Congressional District 7</t>
         </is>
       </c>
-      <c r="B9">
-        <v>618</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>618</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1889,8 +2015,10 @@
           <t>Congressional District 8</t>
         </is>
       </c>
-      <c r="B10">
-        <v>166</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>166</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1919,8 +2047,10 @@
           <t>Congressional District 9</t>
         </is>
       </c>
-      <c r="B11">
-        <v>348</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>348</t>
+        </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1949,8 +2079,10 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="B12">
-        <v>2741</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2,741</t>
+        </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -2024,8 +2156,10 @@
           <t>Between $100K and $499K</t>
         </is>
       </c>
-      <c r="B2">
-        <v>849</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>849</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -2054,8 +2188,10 @@
           <t>Between $1M and $4.99M</t>
         </is>
       </c>
-      <c r="B3">
-        <v>810</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>810</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -2084,8 +2220,10 @@
           <t>Between $500K and $999K</t>
         </is>
       </c>
-      <c r="B4">
-        <v>514</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>514</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -2114,8 +2252,10 @@
           <t>Between $5M and $9.99M</t>
         </is>
       </c>
-      <c r="B5">
-        <v>167</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>167</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -2144,8 +2284,10 @@
           <t>Greater than $10M</t>
         </is>
       </c>
-      <c r="B6">
-        <v>303</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>303</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -2174,8 +2316,10 @@
           <t>Less than $100K</t>
         </is>
       </c>
-      <c r="B7">
-        <v>98</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -2204,8 +2348,10 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="B8">
-        <v>2741</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2,741</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -2279,8 +2425,10 @@
           <t>Arts, Culture, and Humanities</t>
         </is>
       </c>
-      <c r="B2">
-        <v>288</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -2309,8 +2457,10 @@
           <t>Education (Excluding Universities)</t>
         </is>
       </c>
-      <c r="B3">
-        <v>252</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>252</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -2339,8 +2489,10 @@
           <t>Environment and Animals</t>
         </is>
       </c>
-      <c r="B4">
-        <v>171</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>171</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -2369,8 +2521,10 @@
           <t>Health (Excluding Hospitals)</t>
         </is>
       </c>
-      <c r="B5">
-        <v>195</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>195</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -2399,8 +2553,10 @@
           <t>Hospitals</t>
         </is>
       </c>
-      <c r="B6">
-        <v>17</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -2429,8 +2585,10 @@
           <t>Human Services</t>
         </is>
       </c>
-      <c r="B7">
-        <v>855</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>855</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -2459,8 +2617,10 @@
           <t>International, Foreign Affairs</t>
         </is>
       </c>
-      <c r="B8">
-        <v>42</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -2489,8 +2649,10 @@
           <t>Public, Societal Benefit</t>
         </is>
       </c>
-      <c r="B9">
-        <v>242</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>242</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -2519,8 +2681,10 @@
           <t>Religion Related</t>
         </is>
       </c>
-      <c r="B10">
-        <v>52</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -2549,8 +2713,10 @@
           <t>Unclassified</t>
         </is>
       </c>
-      <c r="B11">
-        <v>607</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>607</t>
+        </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -2579,8 +2745,10 @@
           <t>Universities</t>
         </is>
       </c>
-      <c r="B12">
-        <v>20</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -2609,8 +2777,10 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="B13">
-        <v>2741</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2,741</t>
+        </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>

--- a/data/processed/state_overviews/washington_overview.xlsx
+++ b/data/processed/state_overviews/washington_overview.xlsx
@@ -364,27 +364,27 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
@@ -422,7 +422,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -431,1280 +431,1312 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>County</t>
+          <t>Geography</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Adams County</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>103,475</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>$15,081,967</t>
+          <t>$267,700,640,005</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>22.56%</t>
+          <t>9.05%</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>5.87%</t>
+          <t>-12.83%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>50.00%</t>
+          <t>67.35%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Asotin County</t>
+          <t>Washington</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2,741</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$1,970,662</t>
+          <t>$6,452,428,730</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>12.54%</t>
+          <t>10.77%</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-17.10%</t>
+          <t>-10.62%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>50.00%</t>
+          <t>66.00%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Benton County</t>
+          <t>Adams County</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$92,591,435</t>
+          <t>$15,081,967</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>8.34%</t>
+          <t>22.56%</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-14.62%</t>
+          <t>5.87%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>68.00%</t>
+          <t>50.00%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Chelan County</t>
+          <t>Asotin County</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$56,978,039</t>
+          <t>$1,970,662</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>14.64%</t>
+          <t>12.54%</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-3.08%</t>
+          <t>-17.10%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>55.07%</t>
+          <t>50.00%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Clallam County</t>
+          <t>Benton County</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>50</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$21,174,573</t>
+          <t>$92,591,435</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>15.38%</t>
+          <t>8.34%</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-10.91%</t>
+          <t>-14.62%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>56.82%</t>
+          <t>68.00%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Clark County</t>
+          <t>Chelan County</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>69</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>$258,301,547</t>
+          <t>$56,978,039</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>15.28%</t>
+          <t>14.64%</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>-6.97%</t>
+          <t>-3.08%</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>61.18%</t>
+          <t>55.07%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Columbia County</t>
+          <t>Clallam County</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>44</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>$551,435</t>
+          <t>$21,174,573</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>18.54%</t>
+          <t>15.38%</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.04%</t>
+          <t>-10.91%</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>50.00%</t>
+          <t>56.82%</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Cowlitz County</t>
+          <t>Clark County</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>85</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>$31,730,996</t>
+          <t>$258,301,547</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>9.24%</t>
+          <t>15.28%</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>-27.78%</t>
+          <t>-6.97%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>69.57%</t>
+          <t>61.18%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Douglas County</t>
+          <t>Columbia County</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>$4,712,626</t>
+          <t>$551,435</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>4.88%</t>
+          <t>18.54%</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>-0.41%</t>
+          <t>1.04%</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>60.00%</t>
+          <t>50.00%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Ferry County</t>
+          <t>Cowlitz County</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>23</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$51,600</t>
+          <t>$31,730,996</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>24.40%</t>
+          <t>9.24%</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>14.18%</t>
+          <t>-27.78%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>69.57%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Franklin County</t>
+          <t>Douglas County</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>$25,678,574</t>
+          <t>$4,712,626</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>3.92%</t>
+          <t>4.88%</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>-39.91%</t>
+          <t>-0.41%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>78.57%</t>
+          <t>60.00%</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Grant County</t>
+          <t>Ferry County</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>$19,391,768</t>
+          <t>$51,600</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>6.29%</t>
+          <t>24.40%</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>-8.37%</t>
+          <t>14.18%</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>76.92%</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Grays Harbor County</t>
+          <t>Franklin County</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>$50,625,084</t>
+          <t>$25,678,574</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2.58%</t>
+          <t>3.92%</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>-35.35%</t>
+          <t>-39.91%</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>76.00%</t>
+          <t>78.57%</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Island County</t>
+          <t>Grant County</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>$7,215,515</t>
+          <t>$19,391,768</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>17.64%</t>
+          <t>6.29%</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>1.32%</t>
+          <t>-8.37%</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>44.12%</t>
+          <t>76.92%</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Jefferson County</t>
+          <t>Grays Harbor County</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>25</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>$27,820,937</t>
+          <t>$50,625,084</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>20.79%</t>
+          <t>2.58%</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>-4.62%</t>
+          <t>-35.35%</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>55.26%</t>
+          <t>76.00%</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>King County</t>
+          <t>Island County</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1,129</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>$3,800,535,168</t>
+          <t>$7,215,515</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>9.93%</t>
+          <t>17.64%</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>-10.48%</t>
+          <t>1.32%</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>66.34%</t>
+          <t>44.12%</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Kitsap County</t>
+          <t>Jefferson County</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>$120,545,761</t>
+          <t>$27,820,937</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>17.14%</t>
+          <t>20.79%</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1.02%</t>
+          <t>-4.62%</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>48.35%</t>
+          <t>55.26%</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Kittitas County</t>
+          <t>King County</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>1,129</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>$19,709,311</t>
+          <t>$3,800,535,168</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>13.09%</t>
+          <t>9.93%</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>-5.22%</t>
+          <t>-10.48%</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>76.19%</t>
+          <t>66.34%</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Klickitat County</t>
+          <t>Kitsap County</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>91</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>$10,459,559</t>
+          <t>$120,545,761</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>4.20%</t>
+          <t>17.14%</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>-43.96%</t>
+          <t>1.02%</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>88.89%</t>
+          <t>48.35%</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Lewis County</t>
+          <t>Kittitas County</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>$18,740,943</t>
+          <t>$19,709,311</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>9.69%</t>
+          <t>13.09%</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>-19.02%</t>
+          <t>-5.22%</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>78.26%</t>
+          <t>76.19%</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Lincoln County</t>
+          <t>Klickitat County</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>$197,457</t>
+          <t>$10,459,559</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>18.89%</t>
+          <t>4.20%</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>-17.24%</t>
+          <t>-43.96%</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>88.89%</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Mason County</t>
+          <t>Lewis County</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>23</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>$28,628,427</t>
+          <t>$18,740,943</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>5.90%</t>
+          <t>9.69%</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>-18.62%</t>
+          <t>-19.02%</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>73.33%</t>
+          <t>78.26%</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Okanogan County</t>
+          <t>Lincoln County</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>$38,660,776</t>
+          <t>$197,457</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>13.50%</t>
+          <t>18.89%</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>-16.89%</t>
+          <t>-17.24%</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>62.07%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Pacific County</t>
+          <t>Mason County</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>$1,888,319</t>
+          <t>$28,628,427</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>12.91%</t>
+          <t>5.90%</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>4.27%</t>
+          <t>-18.62%</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>38.46%</t>
+          <t>73.33%</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Pend Oreille County</t>
+          <t>Okanogan County</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>29</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>$2,941,876</t>
+          <t>$38,660,776</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>8.96%</t>
+          <t>13.50%</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>-64.13%</t>
+          <t>-16.89%</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>80.00%</t>
+          <t>62.07%</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Pierce County</t>
+          <t>Pacific County</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>$573,667,961</t>
+          <t>$1,888,319</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>7.84%</t>
+          <t>12.91%</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>-16.44%</t>
+          <t>4.27%</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>69.86%</t>
+          <t>38.46%</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>San Juan County</t>
+          <t>Pend Oreille County</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>$6,329,988</t>
+          <t>$2,941,876</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>18.26%</t>
+          <t>8.96%</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>-5.69%</t>
+          <t>-64.13%</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>58.33%</t>
+          <t>80.00%</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Skagit County</t>
+          <t>Pierce County</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>209</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>$34,099,630</t>
+          <t>$573,667,961</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>12.83%</t>
+          <t>7.84%</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>-7.44%</t>
+          <t>-16.44%</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>72.55%</t>
+          <t>69.86%</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Skamania County</t>
+          <t>San Juan County</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>36</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>$1,062,822</t>
+          <t>$6,329,988</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>6.18%</t>
+          <t>18.26%</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>-41.63%</t>
+          <t>-5.69%</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>75.00%</t>
+          <t>58.33%</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Snohomish County</t>
+          <t>Skagit County</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>$248,494,879</t>
+          <t>$34,099,630</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>7.22%</t>
+          <t>12.83%</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>-18.19%</t>
+          <t>-7.44%</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>70.24%</t>
+          <t>72.55%</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Spokane County</t>
+          <t>Skamania County</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>$304,433,917</t>
+          <t>$1,062,822</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>8.72%</t>
+          <t>6.18%</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>-15.98%</t>
+          <t>-41.63%</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>71.89%</t>
+          <t>75.00%</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Stevens County</t>
+          <t>Snohomish County</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>168</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>$33,028,122</t>
+          <t>$248,494,879</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>13.05%</t>
+          <t>7.22%</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>-4.20%</t>
+          <t>-18.19%</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>53.85%</t>
+          <t>70.24%</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Thurston County</t>
+          <t>Spokane County</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>185</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>$116,776,860</t>
+          <t>$304,433,917</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>13.69%</t>
+          <t>8.72%</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>-14.97%</t>
+          <t>-15.98%</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>70.59%</t>
+          <t>71.89%</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Wahkiakum County</t>
+          <t>Stevens County</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>$166,737</t>
+          <t>$33,028,122</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>11.99%</t>
+          <t>13.05%</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>-4.22%</t>
+          <t>-4.20%</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>53.85%</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Walla Walla County</t>
+          <t>Thurston County</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>102</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>$45,068,102</t>
+          <t>$116,776,860</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>9.07%</t>
+          <t>13.69%</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>-16.69%</t>
+          <t>-14.97%</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>70.59%</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Whatcom County</t>
+          <t>Wahkiakum County</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>$108,649,395</t>
+          <t>$166,737</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>13.11%</t>
+          <t>11.99%</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>-6.24%</t>
+          <t>-4.22%</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>66.35%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Whitman County</t>
+          <t>Walla Walla County</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>$19,151,155</t>
+          <t>$45,068,102</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>5.11%</t>
+          <t>9.07%</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>-63.19%</t>
+          <t>-16.69%</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>76.92%</t>
+          <t>66.67%</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Yakima County</t>
+          <t>Whatcom County</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>104</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>$305,314,807</t>
+          <t>$108,649,395</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>14.03%</t>
+          <t>13.11%</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>-6.62%</t>
+          <t>-6.24%</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>62.50%</t>
+          <t>66.35%</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Whitman County</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2,741</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>$6,452,428,730</t>
+          <t>$19,151,155</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>10.77%</t>
+          <t>5.11%</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>-10.62%</t>
+          <t>-63.19%</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>66.00%</t>
+          <t>76.92%</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Yakima County</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>$305,314,807</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>14.03%</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>-6.62%</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>62.50%</t>
         </is>
       </c>
     </row>
@@ -1715,7 +1747,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1724,384 +1756,416 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Congressional District</t>
+          <t>Geography</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Congressional District 1</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>103,475</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>$113,372,062</t>
+          <t>$267,700,640,005</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>8.37%</t>
+          <t>9.05%</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>-10.06%</t>
+          <t>-12.83%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>67.11%</t>
+          <t>67.35%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Congressional District 10</t>
+          <t>Washington</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>2,741</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$278,485,489</t>
+          <t>$6,452,428,730</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>10.12%</t>
+          <t>10.77%</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-16.85%</t>
+          <t>-10.62%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>71.88%</t>
+          <t>66.00%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Congressional District 2</t>
+          <t>1st Congressional district</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>336</t>
+          <t>149</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$376,584,433</t>
+          <t>$113,372,062</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>11.69%</t>
+          <t>8.37%</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-9.28%</t>
+          <t>-10.06%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>66.07%</t>
+          <t>67.11%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Congressional District 3</t>
+          <t>2nd Congressional district</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>336</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$312,460,157</t>
+          <t>$376,584,433</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>12.93%</t>
+          <t>11.69%</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-10.55%</t>
+          <t>-9.28%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>64.47%</t>
+          <t>66.07%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Congressional District 4</t>
+          <t>3rd Congressional district</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>152</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$511,734,211</t>
+          <t>$312,460,157</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>9.98%</t>
+          <t>12.93%</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-11.13%</t>
+          <t>-10.55%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>66.84%</t>
+          <t>64.47%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Congressional District 5</t>
+          <t>4th Congressional district</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>263</t>
+          <t>193</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>$407,551,627</t>
+          <t>$511,734,211</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>9.07%</t>
+          <t>9.98%</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>-15.94%</t>
+          <t>-11.13%</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>69.96%</t>
+          <t>66.84%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Congressional District 6</t>
+          <t>5th Congressional district</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>356</t>
+          <t>263</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>$659,397,139</t>
+          <t>$407,551,627</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>12.78%</t>
+          <t>9.07%</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>-9.89%</t>
+          <t>-15.94%</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>60.67%</t>
+          <t>69.96%</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Congressional District 7</t>
+          <t>6th Congressional district</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>618</t>
+          <t>356</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>$2,054,332,608</t>
+          <t>$659,397,139</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>10.19%</t>
+          <t>12.78%</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>-9.86%</t>
+          <t>-9.89%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>66.18%</t>
+          <t>60.67%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Congressional District 8</t>
+          <t>7th Congressional district</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>618</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>$113,458,957</t>
+          <t>$2,054,332,608</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>13.01%</t>
+          <t>10.19%</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>-4.83%</t>
+          <t>-9.86%</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>61.45%</t>
+          <t>66.18%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Congressional District 9</t>
+          <t>8th Congressional district</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>348</t>
+          <t>166</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$1,625,052,047</t>
+          <t>$113,458,957</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>8.54%</t>
+          <t>13.01%</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>-11.31%</t>
+          <t>-4.83%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>67.24%</t>
+          <t>61.45%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>9th Congressional district</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2,741</t>
+          <t>348</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>$6,452,428,730</t>
+          <t>$1,625,052,047</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>10.77%</t>
+          <t>8.54%</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>-10.62%</t>
+          <t>-11.31%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>66.00%</t>
+          <t>67.24%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>10th Congressional district</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>$278,485,489</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>10.12%</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>-16.85%</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>71.88%</t>
         </is>
       </c>
     </row>
@@ -2126,34 +2190,34 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Between $100K and $499K</t>
+          <t>$100K to $499K</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -2185,128 +2249,128 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Between $1M and $4.99M</t>
+          <t>$10M or more</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>810</t>
+          <t>303</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$673,119,135</t>
+          <t>$5,055,628,524</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>9.78%</t>
+          <t>5.47%</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-10.38%</t>
+          <t>-11.25%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>66.91%</t>
+          <t>74.26%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Between $500K and $999K</t>
+          <t>$1M to $4.9M</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>514</t>
+          <t>810</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$143,474,794</t>
+          <t>$673,119,135</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>11.54%</t>
+          <t>9.78%</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-12.25%</t>
+          <t>-10.38%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>66.54%</t>
+          <t>66.91%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Between $5M and $9.99M</t>
+          <t>$500K to $999K</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>167</t>
+          <t>514</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$470,466,581</t>
+          <t>$143,474,794</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>9.69%</t>
+          <t>11.54%</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-15.30%</t>
+          <t>-12.25%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>67.07%</t>
+          <t>66.54%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Greater than $10M</t>
+          <t>$5M to $9.9M</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>303</t>
+          <t>167</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$5,055,628,524</t>
+          <t>$470,466,581</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>5.47%</t>
+          <t>9.69%</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-11.25%</t>
+          <t>-15.30%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>74.26%</t>
+          <t>67.07%</t>
         </is>
       </c>
     </row>
@@ -2395,34 +2459,34 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arts, Culture, and Humanities</t>
+          <t>Arts, culture, and humanities</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -2454,7 +2518,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education (Excluding Universities)</t>
+          <t>Education</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -2486,7 +2550,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Environment and Animals</t>
+          <t>Environment and animals</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -2518,7 +2582,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Health (Excluding Hospitals)</t>
+          <t>Health</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -2582,7 +2646,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Human Services</t>
+          <t>Human services</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -2614,7 +2678,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>International, Foreign Affairs</t>
+          <t>International, foreign affairs</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -2646,7 +2710,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Public, Societal Benefit</t>
+          <t>Public, societal benefit</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2678,7 +2742,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Religion Related</t>
+          <t>Religion-related</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2710,64 +2774,64 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Unclassified</t>
+          <t>Universities</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>607</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$1,715,382,051</t>
+          <t>$83,597,543</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>8.98%</t>
+          <t>9.94%</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>-13.35%</t>
+          <t>1.75%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>71.00%</t>
+          <t>45.00%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Universities</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>607</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>$83,597,543</t>
+          <t>$1,715,382,051</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>9.94%</t>
+          <t>8.98%</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1.75%</t>
+          <t>-13.35%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>45.00%</t>
+          <t>71.00%</t>
         </is>
       </c>
     </row>

--- a/data/processed/state_overviews/washington_overview.xlsx
+++ b/data/processed/state_overviews/washington_overview.xlsx
@@ -364,54 +364,54 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>66.00%</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>2,741</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>$6,452,428,730</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>10.77%</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>-10.62%</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>66.00%</t>
         </is>
       </c>
     </row>
@@ -436,27 +436,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
@@ -468,27 +468,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>67.35%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>103,475</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$267,700,640,005</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>9.05%</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>-12.83%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>67.35%</t>
         </is>
       </c>
     </row>
@@ -500,27 +500,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>66.00%</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>2,741</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>$6,452,428,730</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>10.77%</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>-10.62%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>66.00%</t>
         </is>
       </c>
     </row>
@@ -532,27 +532,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>$15,081,967</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>22.56%</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>5.87%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -564,27 +564,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>$1,970,662</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>12.54%</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>-17.10%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -596,27 +596,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>68.00%</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>50</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>$92,591,435</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>8.34%</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>-14.62%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>68.00%</t>
         </is>
       </c>
     </row>
@@ -628,27 +628,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>55.07%</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>69</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>$56,978,039</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>14.64%</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>-3.08%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>55.07%</t>
         </is>
       </c>
     </row>
@@ -660,27 +660,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>56.82%</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>44</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>$21,174,573</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>15.38%</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>-10.91%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>56.82%</t>
         </is>
       </c>
     </row>
@@ -692,27 +692,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>61.18%</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>85</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>$258,301,547</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>15.28%</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>-6.97%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>61.18%</t>
         </is>
       </c>
     </row>
@@ -724,27 +724,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>$551,435</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>18.54%</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1.04%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -756,27 +756,27 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>69.57%</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>23</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>$31,730,996</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>9.24%</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>-27.78%</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>69.57%</t>
         </is>
       </c>
     </row>
@@ -788,27 +788,27 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>60.00%</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>$4,712,626</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>4.88%</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>-0.41%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>60.00%</t>
         </is>
       </c>
     </row>
@@ -820,27 +820,27 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>$51,600</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>24.40%</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>14.18%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -852,27 +852,27 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>78.57%</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
           <t>14</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>$25,678,574</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>3.92%</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>-39.91%</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>78.57%</t>
         </is>
       </c>
     </row>
@@ -884,27 +884,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>76.92%</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
           <t>13</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>$19,391,768</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>6.29%</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>-8.37%</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>76.92%</t>
         </is>
       </c>
     </row>
@@ -916,27 +916,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>76.00%</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
           <t>25</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>$50,625,084</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>2.58%</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>-35.35%</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>76.00%</t>
         </is>
       </c>
     </row>
@@ -948,27 +948,27 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>44.12%</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
           <t>34</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>$7,215,515</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>17.64%</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1.32%</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>44.12%</t>
         </is>
       </c>
     </row>
@@ -980,27 +980,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>55.26%</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
           <t>38</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>$27,820,937</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>20.79%</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>-4.62%</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>55.26%</t>
         </is>
       </c>
     </row>
@@ -1012,27 +1012,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>66.34%</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
           <t>1,129</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>$3,800,535,168</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>9.93%</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>-10.48%</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>66.34%</t>
         </is>
       </c>
     </row>
@@ -1044,27 +1044,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>48.35%</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
           <t>91</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>$120,545,761</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>17.14%</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1.02%</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>48.35%</t>
         </is>
       </c>
     </row>
@@ -1076,27 +1076,27 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>76.19%</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
           <t>21</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>$19,709,311</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>13.09%</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>-5.22%</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>76.19%</t>
         </is>
       </c>
     </row>
@@ -1108,27 +1108,27 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
+          <t>88.89%</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
           <t>9</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>$10,459,559</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>4.20%</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>-43.96%</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>88.89%</t>
         </is>
       </c>
     </row>
@@ -1140,27 +1140,27 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
+          <t>78.26%</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
           <t>23</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>$18,740,943</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>9.69%</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>-19.02%</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>78.26%</t>
         </is>
       </c>
     </row>
@@ -1172,27 +1172,27 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>$197,457</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>18.89%</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>-17.24%</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1204,27 +1204,27 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
+          <t>73.33%</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
           <t>15</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>$28,628,427</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>5.90%</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>-18.62%</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>73.33%</t>
         </is>
       </c>
     </row>
@@ -1236,27 +1236,27 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
+          <t>62.07%</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
           <t>29</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>$38,660,776</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>13.50%</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>-16.89%</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>62.07%</t>
         </is>
       </c>
     </row>
@@ -1268,27 +1268,27 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
+          <t>38.46%</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
           <t>13</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t>$1,888,319</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>12.91%</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>4.27%</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>38.46%</t>
         </is>
       </c>
     </row>
@@ -1300,27 +1300,27 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
+          <t>80.00%</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>$2,941,876</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>8.96%</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>-64.13%</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>80.00%</t>
         </is>
       </c>
     </row>
@@ -1332,27 +1332,27 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
+          <t>69.86%</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
           <t>209</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t>$573,667,961</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>7.84%</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>-16.44%</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>69.86%</t>
         </is>
       </c>
     </row>
@@ -1364,27 +1364,27 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
+          <t>58.33%</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
           <t>36</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="D30" t="inlineStr">
         <is>
           <t>$6,329,988</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>18.26%</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>-5.69%</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>58.33%</t>
         </is>
       </c>
     </row>
@@ -1396,27 +1396,27 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
+          <t>72.55%</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
           <t>51</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="D31" t="inlineStr">
         <is>
           <t>$34,099,630</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>12.83%</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>-7.44%</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>72.55%</t>
         </is>
       </c>
     </row>
@@ -1428,27 +1428,27 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
+          <t>75.00%</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="D32" t="inlineStr">
         <is>
           <t>$1,062,822</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>6.18%</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>-41.63%</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>75.00%</t>
         </is>
       </c>
     </row>
@@ -1460,27 +1460,27 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
+          <t>70.24%</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
           <t>168</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="D33" t="inlineStr">
         <is>
           <t>$248,494,879</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>7.22%</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>-18.19%</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>70.24%</t>
         </is>
       </c>
     </row>
@@ -1492,27 +1492,27 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
+          <t>71.89%</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
           <t>185</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="D34" t="inlineStr">
         <is>
           <t>$304,433,917</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>8.72%</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>-15.98%</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>71.89%</t>
         </is>
       </c>
     </row>
@@ -1524,27 +1524,27 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
+          <t>53.85%</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
           <t>13</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="D35" t="inlineStr">
         <is>
           <t>$33,028,122</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>13.05%</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>-4.20%</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>53.85%</t>
         </is>
       </c>
     </row>
@@ -1556,27 +1556,27 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
+          <t>70.59%</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
           <t>102</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="D36" t="inlineStr">
         <is>
           <t>$116,776,860</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>13.69%</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>-14.97%</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>70.59%</t>
         </is>
       </c>
     </row>
@@ -1588,27 +1588,27 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="D37" t="inlineStr">
         <is>
           <t>$166,737</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>11.99%</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>-4.22%</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1620,27 +1620,27 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
+          <t>66.67%</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
           <t>33</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="D38" t="inlineStr">
         <is>
           <t>$45,068,102</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>9.07%</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>-16.69%</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>66.67%</t>
         </is>
       </c>
     </row>
@@ -1652,27 +1652,27 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
+          <t>66.35%</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
           <t>104</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="D39" t="inlineStr">
         <is>
           <t>$108,649,395</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>13.11%</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>-6.24%</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>66.35%</t>
         </is>
       </c>
     </row>
@@ -1684,27 +1684,27 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
+          <t>76.92%</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
           <t>13</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="D40" t="inlineStr">
         <is>
           <t>$19,151,155</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>5.11%</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>-63.19%</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>76.92%</t>
         </is>
       </c>
     </row>
@@ -1716,27 +1716,27 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
+          <t>62.50%</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
           <t>72</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="D41" t="inlineStr">
         <is>
           <t>$305,314,807</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>14.03%</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>-6.62%</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>62.50%</t>
         </is>
       </c>
     </row>
@@ -1761,27 +1761,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
@@ -1793,27 +1793,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>67.35%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>103,475</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$267,700,640,005</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>9.05%</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>-12.83%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>67.35%</t>
         </is>
       </c>
     </row>
@@ -1825,347 +1825,347 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>66.00%</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>2,741</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>$6,452,428,730</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>10.77%</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>-10.62%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>66.00%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1st Congressional district</t>
+          <t>Congressional District 1</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>67.11%</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>149</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>$113,372,062</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>8.37%</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>-10.06%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>67.11%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2nd Congressional district</t>
+          <t>Congressional District 10</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>336</t>
+          <t>71.88%</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$376,584,433</t>
+          <t>160</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>11.69%</t>
+          <t>$278,485,489</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-9.28%</t>
+          <t>10.12%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>66.07%</t>
+          <t>-16.85%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>3rd Congressional district</t>
+          <t>Congressional District 2</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>66.07%</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$312,460,157</t>
+          <t>336</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>12.93%</t>
+          <t>$376,584,433</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-10.55%</t>
+          <t>11.69%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>64.47%</t>
+          <t>-9.28%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>4th Congressional district</t>
+          <t>Congressional District 3</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>64.47%</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>$511,734,211</t>
+          <t>152</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>9.98%</t>
+          <t>$312,460,157</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>-11.13%</t>
+          <t>12.93%</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>66.84%</t>
+          <t>-10.55%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>5th Congressional district</t>
+          <t>Congressional District 4</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>263</t>
+          <t>66.84%</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>$407,551,627</t>
+          <t>193</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>9.07%</t>
+          <t>$511,734,211</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>-15.94%</t>
+          <t>9.98%</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>69.96%</t>
+          <t>-11.13%</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>6th Congressional district</t>
+          <t>Congressional District 5</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>356</t>
+          <t>69.96%</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>$659,397,139</t>
+          <t>263</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>12.78%</t>
+          <t>$407,551,627</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>-9.89%</t>
+          <t>9.07%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>60.67%</t>
+          <t>-15.94%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>7th Congressional district</t>
+          <t>Congressional District 6</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>618</t>
+          <t>60.67%</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>$2,054,332,608</t>
+          <t>356</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>10.19%</t>
+          <t>$659,397,139</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>-9.86%</t>
+          <t>12.78%</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>66.18%</t>
+          <t>-9.89%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>8th Congressional district</t>
+          <t>Congressional District 7</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>66.18%</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$113,458,957</t>
+          <t>618</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>13.01%</t>
+          <t>$2,054,332,608</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>-4.83%</t>
+          <t>10.19%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>61.45%</t>
+          <t>-9.86%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>9th Congressional district</t>
+          <t>Congressional District 8</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>348</t>
+          <t>61.45%</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>$1,625,052,047</t>
+          <t>166</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>8.54%</t>
+          <t>$113,458,957</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>-11.31%</t>
+          <t>13.01%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>67.24%</t>
+          <t>-4.83%</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>10th Congressional district</t>
+          <t>Congressional District 9</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>67.24%</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>$278,485,489</t>
+          <t>348</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>10.12%</t>
+          <t>$1,625,052,047</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>-16.85%</t>
+          <t>8.54%</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>71.88%</t>
+          <t>-11.31%</t>
         </is>
       </c>
     </row>
@@ -2190,187 +2190,187 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>$100K to $499K</t>
+          <t>Between $100K and $499K</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>65.14%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>849</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$101,418,788</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>12.45%</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>-11.08%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>65.14%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>$10M or more</t>
+          <t>Between $1M and $4.99M</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>303</t>
+          <t>66.91%</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$5,055,628,524</t>
+          <t>810</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5.47%</t>
+          <t>$673,119,135</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-11.25%</t>
+          <t>9.78%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>74.26%</t>
+          <t>-10.38%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>$1M to $4.9M</t>
+          <t>Between $500K and $999K</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>810</t>
+          <t>66.54%</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$673,119,135</t>
+          <t>514</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>9.78%</t>
+          <t>$143,474,794</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-10.38%</t>
+          <t>11.54%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>66.91%</t>
+          <t>-12.25%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>$500K to $999K</t>
+          <t>Between $5M and $9.99M</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>514</t>
+          <t>67.07%</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$143,474,794</t>
+          <t>167</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>11.54%</t>
+          <t>$470,466,581</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-12.25%</t>
+          <t>9.69%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>66.54%</t>
+          <t>-15.30%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>$5M to $9.9M</t>
+          <t>Greater than $10M</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>167</t>
+          <t>74.26%</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$470,466,581</t>
+          <t>303</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>9.69%</t>
+          <t>$5,055,628,524</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-15.30%</t>
+          <t>5.47%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>67.07%</t>
+          <t>-11.25%</t>
         </is>
       </c>
     </row>
@@ -2382,27 +2382,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>35.71%</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>98</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>$8,320,908</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>46.99%</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>11.26%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>35.71%</t>
         </is>
       </c>
     </row>
@@ -2414,27 +2414,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>66.00%</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>2,741</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>$6,452,428,730</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>10.77%</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>-10.62%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>66.00%</t>
         </is>
       </c>
     </row>
@@ -2459,155 +2459,155 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arts, culture, and humanities</t>
+          <t>Arts, Culture, and Humanities</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>57.29%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>288</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$146,683,308</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>18.73%</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>-5.25%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>57.29%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education</t>
+          <t>Education (Excluding Universities)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>57.54%</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>252</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>$210,819,860</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>12.40%</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>-4.98%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>57.54%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Environment and animals</t>
+          <t>Environment and Animals</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>52.63%</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>171</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>$263,678,091</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>19.34%</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>-1.26%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>52.63%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Health</t>
+          <t>Health (Excluding Hospitals)</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>71.79%</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>195</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>$1,098,267,818</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>11.73%</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>-12.93%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>71.79%</t>
         </is>
       </c>
     </row>
@@ -2619,219 +2619,219 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>76.47%</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>17</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>$656,578,524</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>0.00%</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>-4.90%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>76.47%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Human services</t>
+          <t>Human Services</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>70.06%</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>855</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>$1,384,682,736</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>9.32%</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>-14.46%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>70.06%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>International, foreign affairs</t>
+          <t>International, Foreign Affairs</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>61.90%</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>42</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>$630,719,319</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>4.41%</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>-8.38%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>61.90%</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Public, societal benefit</t>
+          <t>Public, Societal Benefit</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>69.01%</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>242</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>$237,581,901</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>9.18%</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>-23.77%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>69.01%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Religion-related</t>
+          <t>Religion Related</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>46.15%</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>52</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>$24,437,579</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>17.44%</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>2.06%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>46.15%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Universities</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>71.00%</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$83,597,543</t>
+          <t>607</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>9.94%</t>
+          <t>$1,715,382,051</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1.75%</t>
+          <t>8.98%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>45.00%</t>
+          <t>-13.35%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Unclassified</t>
+          <t>Universities</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>607</t>
+          <t>45.00%</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>$1,715,382,051</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>8.98%</t>
+          <t>$83,597,543</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>-13.35%</t>
+          <t>9.94%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>71.00%</t>
+          <t>1.75%</t>
         </is>
       </c>
     </row>
@@ -2843,27 +2843,27 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>66.00%</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>2,741</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>$6,452,428,730</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>10.77%</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>-10.62%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>66.00%</t>
         </is>
       </c>
     </row>
